--- a/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-mex-021316.xlsx
+++ b/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-mex-021316.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match!$A$1:$T$1259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match!$A$1:$T$1260</definedName>
   </definedNames>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19706" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19708" uniqueCount="185">
   <si>
     <t>event</t>
   </si>
@@ -800,7 +800,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -896,8 +896,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,8 +984,23 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1029,6 +1048,8 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1076,6 +1097,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1405,16 +1428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1259"/>
+  <dimension ref="A1:T1260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A1159" workbookViewId="0">
+      <selection activeCell="C1165" sqref="C1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="34"/>
-    <col min="10" max="12" width="10.83203125" style="34"/>
+    <col min="1" max="4" width="10.83203125" style="34"/>
+    <col min="5" max="5" width="10.83203125" style="48"/>
+    <col min="10" max="11" width="10.83203125" style="34"/>
+    <col min="12" max="12" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1430,7 +1455,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1451,7 +1476,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -2918,7 +2943,7 @@
       <c r="D25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="45" t="s">
         <v>135</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -2939,7 +2964,7 @@
       <c r="K25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="45" t="s">
         <v>135</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -5792,7 +5817,7 @@
       <c r="D72" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F72" s="33" t="s">
@@ -5813,7 +5838,7 @@
       <c r="K72" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="32" t="s">
+      <c r="L72" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="33" t="s">
@@ -5853,7 +5878,7 @@
       <c r="D73" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F73" s="33" t="s">
@@ -5874,7 +5899,7 @@
       <c r="K73" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="32" t="s">
+      <c r="L73" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M73" s="33" t="s">
@@ -8415,7 +8440,7 @@
       <c r="D115" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F115" s="33" t="s">
@@ -8436,7 +8461,7 @@
       <c r="K115" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L115" s="32" t="s">
+      <c r="L115" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M115" s="33" t="s">
@@ -8476,7 +8501,7 @@
       <c r="D116" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E116" s="32" t="s">
+      <c r="E116" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F116" s="33" t="s">
@@ -8497,7 +8522,7 @@
       <c r="K116" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L116" s="32" t="s">
+      <c r="L116" s="46" t="s">
         <v>79</v>
       </c>
       <c r="M116" s="33" t="s">
@@ -11957,7 +11982,7 @@
       <c r="D173" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E173" s="32" t="s">
+      <c r="E173" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F173" s="33" t="s">
@@ -11978,7 +12003,7 @@
       <c r="K173" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L173" s="32" t="s">
+      <c r="L173" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M173" s="33" t="s">
@@ -12018,7 +12043,7 @@
       <c r="D174" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E174" s="32" t="s">
+      <c r="E174" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F174" s="33" t="s">
@@ -12039,7 +12064,7 @@
       <c r="K174" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L174" s="32" t="s">
+      <c r="L174" s="46" t="s">
         <v>41</v>
       </c>
       <c r="M174" s="33" t="s">
@@ -28254,7 +28279,7 @@
       <c r="D440" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E440" s="32" t="s">
+      <c r="E440" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F440" s="33" t="s">
@@ -28275,7 +28300,7 @@
       <c r="K440" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L440" s="32" t="s">
+      <c r="L440" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M440" s="33" t="s">
@@ -28315,7 +28340,7 @@
       <c r="D441" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E441" s="32" t="s">
+      <c r="E441" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F441" s="33" t="s">
@@ -28336,7 +28361,7 @@
       <c r="K441" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L441" s="32" t="s">
+      <c r="L441" s="46" t="s">
         <v>85</v>
       </c>
       <c r="M441" s="33" t="s">
@@ -29047,7 +29072,7 @@
       <c r="D453" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E453" s="32" t="s">
+      <c r="E453" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F453" s="33" t="s">
@@ -29068,7 +29093,7 @@
       <c r="K453" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L453" s="32" t="s">
+      <c r="L453" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M453" s="33" t="s">
@@ -31060,7 +31085,7 @@
       <c r="D486" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E486" s="32" t="s">
+      <c r="E486" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F486" s="33" t="s">
@@ -31081,7 +31106,7 @@
       <c r="K486" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L486" s="32" t="s">
+      <c r="L486" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M486" s="33" t="s">
@@ -31121,7 +31146,7 @@
       <c r="D487" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E487" s="32" t="s">
+      <c r="E487" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F487" s="33" t="s">
@@ -31142,7 +31167,7 @@
       <c r="K487" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L487" s="32" t="s">
+      <c r="L487" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M487" s="33" t="s">
@@ -33136,7 +33161,7 @@
       <c r="D520" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E520" s="32" t="s">
+      <c r="E520" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F520" s="33" t="s">
@@ -33157,7 +33182,7 @@
       <c r="K520" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L520" s="32" t="s">
+      <c r="L520" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M520" s="33" t="s">
@@ -33197,7 +33222,7 @@
       <c r="D521" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E521" s="32" t="s">
+      <c r="E521" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F521" s="33" t="s">
@@ -33218,7 +33243,7 @@
       <c r="K521" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L521" s="32" t="s">
+      <c r="L521" s="46" t="s">
         <v>79</v>
       </c>
       <c r="M521" s="33" t="s">
@@ -33258,7 +33283,7 @@
       <c r="D522" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E522" s="32" t="s">
+      <c r="E522" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F522" s="33" t="s">
@@ -33279,7 +33304,7 @@
       <c r="K522" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L522" s="32" t="s">
+      <c r="L522" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M522" s="33" t="s">
@@ -33319,7 +33344,7 @@
       <c r="D523" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E523" s="32" t="s">
+      <c r="E523" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F523" s="33" t="s">
@@ -33340,7 +33365,7 @@
       <c r="K523" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L523" s="32" t="s">
+      <c r="L523" s="46" t="s">
         <v>79</v>
       </c>
       <c r="M523" s="33" t="s">
@@ -33441,7 +33466,7 @@
       <c r="D525" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E525" s="32" t="s">
+      <c r="E525" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F525" s="33" t="s">
@@ -33462,7 +33487,7 @@
       <c r="K525" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L525" s="32" t="s">
+      <c r="L525" s="46" t="s">
         <v>79</v>
       </c>
       <c r="M525" s="33" t="s">
@@ -34419,7 +34444,7 @@
       <c r="D541" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E541" s="32" t="s">
+      <c r="E541" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F541" s="33" t="s">
@@ -34440,7 +34465,7 @@
       <c r="K541" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L541" s="32" t="s">
+      <c r="L541" s="46" t="s">
         <v>41</v>
       </c>
       <c r="M541" s="33" t="s">
@@ -49450,7 +49475,7 @@
       </c>
       <c r="C804" s="42"/>
       <c r="D804" s="42"/>
-      <c r="E804" s="39" t="s">
+      <c r="E804" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F804" s="42" t="s">
@@ -49467,7 +49492,7 @@
       </c>
       <c r="J804" s="42"/>
       <c r="K804" s="42"/>
-      <c r="L804" s="39" t="s">
+      <c r="L804" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M804" s="23" t="s">
@@ -49505,7 +49530,7 @@
       </c>
       <c r="C805" s="42"/>
       <c r="D805" s="42"/>
-      <c r="E805" s="39" t="s">
+      <c r="E805" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F805" s="42" t="s">
@@ -49522,7 +49547,7 @@
       </c>
       <c r="J805" s="42"/>
       <c r="K805" s="42"/>
-      <c r="L805" s="39" t="s">
+      <c r="L805" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M805" s="23" t="s">
@@ -53145,7 +53170,7 @@
       </c>
       <c r="C871" s="42"/>
       <c r="D871" s="42"/>
-      <c r="E871" s="39" t="s">
+      <c r="E871" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F871" s="42" t="s">
@@ -53162,7 +53187,7 @@
       </c>
       <c r="J871" s="42"/>
       <c r="K871" s="42"/>
-      <c r="L871" s="39" t="s">
+      <c r="L871" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M871" s="23" t="s">
@@ -53200,7 +53225,7 @@
       </c>
       <c r="C872" s="42"/>
       <c r="D872" s="42"/>
-      <c r="E872" s="39" t="s">
+      <c r="E872" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F872" s="33" t="s">
@@ -53217,7 +53242,7 @@
       </c>
       <c r="J872" s="42"/>
       <c r="K872" s="42"/>
-      <c r="L872" s="39" t="s">
+      <c r="L872" s="47" t="s">
         <v>77</v>
       </c>
       <c r="M872" s="23" t="s">
@@ -53695,7 +53720,7 @@
       </c>
       <c r="C881" s="42"/>
       <c r="D881" s="42"/>
-      <c r="E881" s="39" t="s">
+      <c r="E881" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F881" s="33" t="s">
@@ -53712,7 +53737,7 @@
       </c>
       <c r="J881" s="42"/>
       <c r="K881" s="42"/>
-      <c r="L881" s="39" t="s">
+      <c r="L881" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M881" s="23" t="s">
@@ -53805,7 +53830,7 @@
       </c>
       <c r="C883" s="42"/>
       <c r="D883" s="42"/>
-      <c r="E883" s="39" t="s">
+      <c r="E883" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F883" s="33" t="s">
@@ -53822,7 +53847,7 @@
       </c>
       <c r="J883" s="42"/>
       <c r="K883" s="42"/>
-      <c r="L883" s="39" t="s">
+      <c r="L883" s="47" t="s">
         <v>85</v>
       </c>
       <c r="M883" s="23" t="s">
@@ -53860,7 +53885,7 @@
       </c>
       <c r="C884" s="42"/>
       <c r="D884" s="42"/>
-      <c r="E884" s="39" t="s">
+      <c r="E884" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F884" s="33" t="s">
@@ -53877,7 +53902,7 @@
       </c>
       <c r="J884" s="42"/>
       <c r="K884" s="42"/>
-      <c r="L884" s="39" t="s">
+      <c r="L884" s="47" t="s">
         <v>85</v>
       </c>
       <c r="M884" s="23" t="s">
@@ -66799,7 +66824,7 @@
     </row>
     <row r="1119" spans="1:20">
       <c r="A1119" s="32">
-        <f t="shared" ref="A1119:A1182" si="17">IF(OR(F1119="",F1119="-"),A1118,A1118+1)</f>
+        <f t="shared" ref="A1119:A1183" si="17">IF(OR(F1119="",F1119="-"),A1118,A1118+1)</f>
         <v>975</v>
       </c>
       <c r="B1119" s="1">
@@ -69340,49 +69365,25 @@
       <c r="C1165" s="42"/>
       <c r="D1165" s="42"/>
       <c r="E1165" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1165" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1165" s="42" t="s">
-        <v>91</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F1165" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1165" s="42"/>
+      <c r="H1165" s="42"/>
+      <c r="I1165" s="42"/>
       <c r="J1165" s="42"/>
       <c r="K1165" s="42"/>
-      <c r="L1165" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1165" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1165" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1165" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1165" s="42" t="s">
-        <v>20</v>
-      </c>
+      <c r="L1165" s="39"/>
+      <c r="M1165" s="23"/>
+      <c r="N1165" s="42"/>
+      <c r="O1165" s="42"/>
+      <c r="P1165" s="42"/>
+      <c r="Q1165" s="42"/>
+      <c r="R1165" s="43"/>
+      <c r="S1165" s="42"/>
+      <c r="T1165" s="42"/>
     </row>
     <row r="1166" spans="1:20">
       <c r="A1166" s="32">
@@ -69395,10 +69396,10 @@
       <c r="C1166" s="42"/>
       <c r="D1166" s="42"/>
       <c r="E1166" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1166" s="42" t="s">
-        <v>115</v>
+        <v>141</v>
+      </c>
+      <c r="F1166" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G1166" s="42" t="s">
         <v>20</v>
@@ -69407,15 +69408,15 @@
         <v>20</v>
       </c>
       <c r="I1166" s="42" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J1166" s="42"/>
       <c r="K1166" s="42"/>
       <c r="L1166" s="39" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M1166" s="23" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N1166" s="42" t="s">
         <v>20</v>
@@ -69453,7 +69454,7 @@
         <v>105</v>
       </c>
       <c r="F1167" s="42" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G1167" s="42" t="s">
         <v>20</v>
@@ -69467,10 +69468,10 @@
       <c r="J1167" s="42"/>
       <c r="K1167" s="42"/>
       <c r="L1167" s="39" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="M1167" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1167" s="42" t="s">
         <v>20</v>
@@ -69507,8 +69508,8 @@
       <c r="E1168" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F1168" s="33" t="s">
-        <v>174</v>
+      <c r="F1168" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="G1168" s="42" t="s">
         <v>20</v>
@@ -69525,7 +69526,7 @@
         <v>168</v>
       </c>
       <c r="M1168" s="23" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="N1168" s="42" t="s">
         <v>20</v>
@@ -69562,8 +69563,8 @@
       <c r="E1169" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F1169" s="42" t="s">
-        <v>99</v>
+      <c r="F1169" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="G1169" s="42" t="s">
         <v>20</v>
@@ -69577,10 +69578,10 @@
       <c r="J1169" s="42"/>
       <c r="K1169" s="42"/>
       <c r="L1169" s="39" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="M1169" s="23" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="N1169" s="42" t="s">
         <v>20</v>
@@ -69607,7 +69608,7 @@
     <row r="1170" spans="1:20">
       <c r="A1170" s="32">
         <f t="shared" si="17"/>
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1170" s="1">
         <v>87</v>
@@ -69615,10 +69616,10 @@
       <c r="C1170" s="42"/>
       <c r="D1170" s="42"/>
       <c r="E1170" s="39" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F1170" s="42" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G1170" s="42" t="s">
         <v>20</v>
@@ -69632,7 +69633,7 @@
       <c r="J1170" s="42"/>
       <c r="K1170" s="42"/>
       <c r="L1170" s="39" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="M1170" s="23" t="s">
         <v>88</v>
@@ -69649,8 +69650,8 @@
       <c r="Q1170" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1170" s="33" t="s">
-        <v>183</v>
+      <c r="R1170" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="S1170" s="42" t="s">
         <v>20</v>
@@ -69665,15 +69666,15 @@
         <v>1022</v>
       </c>
       <c r="B1171" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1171" s="42"/>
       <c r="D1171" s="42"/>
       <c r="E1171" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1171" s="33" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="F1171" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="G1171" s="42" t="s">
         <v>20</v>
@@ -69681,16 +69682,16 @@
       <c r="H1171" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1171" s="3" t="s">
-        <v>176</v>
+      <c r="I1171" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="J1171" s="42"/>
       <c r="K1171" s="42"/>
       <c r="L1171" s="39" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="M1171" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N1171" s="42" t="s">
         <v>20</v>
@@ -69705,7 +69706,7 @@
         <v>20</v>
       </c>
       <c r="R1171" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S1171" s="42" t="s">
         <v>20</v>
@@ -69742,10 +69743,10 @@
       <c r="J1172" s="42"/>
       <c r="K1172" s="42"/>
       <c r="L1172" s="39" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M1172" s="23" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="N1172" s="42" t="s">
         <v>20</v>
@@ -69759,8 +69760,8 @@
       <c r="Q1172" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1172" s="43" t="s">
-        <v>20</v>
+      <c r="R1172" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="S1172" s="42" t="s">
         <v>20</v>
@@ -69780,7 +69781,7 @@
       <c r="C1173" s="42"/>
       <c r="D1173" s="42"/>
       <c r="E1173" s="39" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F1173" s="33" t="s">
         <v>173</v>
@@ -69791,16 +69792,16 @@
       <c r="H1173" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1173" s="42" t="s">
-        <v>75</v>
+      <c r="I1173" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="J1173" s="42"/>
       <c r="K1173" s="42"/>
       <c r="L1173" s="39" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M1173" s="23" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N1173" s="42" t="s">
         <v>20</v>
@@ -69814,8 +69815,8 @@
       <c r="Q1173" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1173" s="33" t="s">
-        <v>183</v>
+      <c r="R1173" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="S1173" s="42" t="s">
         <v>20</v>
@@ -69835,10 +69836,10 @@
       <c r="C1174" s="42"/>
       <c r="D1174" s="42"/>
       <c r="E1174" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1174" s="42" t="s">
-        <v>117</v>
+        <v>49</v>
+      </c>
+      <c r="F1174" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1174" s="42" t="s">
         <v>20</v>
@@ -69847,15 +69848,15 @@
         <v>20</v>
       </c>
       <c r="I1174" s="42" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J1174" s="42"/>
       <c r="K1174" s="42"/>
       <c r="L1174" s="39" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M1174" s="23" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N1174" s="42" t="s">
         <v>20</v>
@@ -69869,8 +69870,8 @@
       <c r="Q1174" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1174" s="43" t="s">
-        <v>20</v>
+      <c r="R1174" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="S1174" s="42" t="s">
         <v>20</v>
@@ -69885,15 +69886,15 @@
         <v>1026</v>
       </c>
       <c r="B1175" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1175" s="42"/>
       <c r="D1175" s="42"/>
       <c r="E1175" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1175" s="33" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="F1175" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="G1175" s="42" t="s">
         <v>20</v>
@@ -69902,23 +69903,21 @@
         <v>20</v>
       </c>
       <c r="I1175" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1175" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J1175" s="42"/>
       <c r="K1175" s="42"/>
       <c r="L1175" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M1175" s="23" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="N1175" s="42" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="O1175" s="42" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P1175" s="42" t="s">
         <v>20</v>
@@ -69947,10 +69946,10 @@
       <c r="C1176" s="42"/>
       <c r="D1176" s="42"/>
       <c r="E1176" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1176" s="42" t="s">
-        <v>117</v>
+        <v>142</v>
+      </c>
+      <c r="F1176" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1176" s="42" t="s">
         <v>20</v>
@@ -69959,21 +69958,23 @@
         <v>20</v>
       </c>
       <c r="I1176" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1176" s="42"/>
+        <v>148</v>
+      </c>
+      <c r="J1176" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="K1176" s="42"/>
       <c r="L1176" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1176" s="23" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="N1176" s="42" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="O1176" s="42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P1176" s="42" t="s">
         <v>20</v>
@@ -70002,10 +70003,10 @@
       <c r="C1177" s="42"/>
       <c r="D1177" s="42"/>
       <c r="E1177" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1177" s="33" t="s">
-        <v>170</v>
+        <v>20</v>
+      </c>
+      <c r="F1177" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="G1177" s="42" t="s">
         <v>20</v>
@@ -70057,10 +70058,10 @@
       <c r="C1178" s="42"/>
       <c r="D1178" s="42"/>
       <c r="E1178" s="39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F1178" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1178" s="42" t="s">
         <v>20</v>
@@ -70112,10 +70113,10 @@
       <c r="C1179" s="42"/>
       <c r="D1179" s="42"/>
       <c r="E1179" s="39" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F1179" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1179" s="42" t="s">
         <v>20</v>
@@ -70167,7 +70168,7 @@
       <c r="C1180" s="42"/>
       <c r="D1180" s="42"/>
       <c r="E1180" s="39" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F1180" s="33" t="s">
         <v>170</v>
@@ -70222,10 +70223,10 @@
       <c r="C1181" s="42"/>
       <c r="D1181" s="42"/>
       <c r="E1181" s="39" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F1181" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1181" s="42" t="s">
         <v>20</v>
@@ -70277,7 +70278,7 @@
       <c r="C1182" s="42"/>
       <c r="D1182" s="42"/>
       <c r="E1182" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1182" s="33" t="s">
         <v>173</v>
@@ -70323,7 +70324,7 @@
     </row>
     <row r="1183" spans="1:20">
       <c r="A1183" s="32">
-        <f t="shared" ref="A1183:A1246" si="18">IF(OR(F1183="",F1183="-"),A1182,A1182+1)</f>
+        <f t="shared" si="17"/>
         <v>1034</v>
       </c>
       <c r="B1183" s="1">
@@ -70332,10 +70333,10 @@
       <c r="C1183" s="42"/>
       <c r="D1183" s="42"/>
       <c r="E1183" s="39" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F1183" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1183" s="42" t="s">
         <v>20</v>
@@ -70349,10 +70350,10 @@
       <c r="J1183" s="42"/>
       <c r="K1183" s="42"/>
       <c r="L1183" s="39" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="M1183" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1183" s="42" t="s">
         <v>20</v>
@@ -70378,7 +70379,7 @@
     </row>
     <row r="1184" spans="1:20">
       <c r="A1184" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A1184:A1247" si="18">IF(OR(F1184="",F1184="-"),A1183,A1183+1)</f>
         <v>1035</v>
       </c>
       <c r="B1184" s="1">
@@ -70387,10 +70388,10 @@
       <c r="C1184" s="42"/>
       <c r="D1184" s="42"/>
       <c r="E1184" s="39" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F1184" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1184" s="42" t="s">
         <v>20</v>
@@ -70404,10 +70405,10 @@
       <c r="J1184" s="42"/>
       <c r="K1184" s="42"/>
       <c r="L1184" s="39" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M1184" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1184" s="42" t="s">
         <v>20</v>
@@ -70442,7 +70443,7 @@
       <c r="C1185" s="42"/>
       <c r="D1185" s="42"/>
       <c r="E1185" s="39" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F1185" s="33" t="s">
         <v>173</v>
@@ -70497,10 +70498,10 @@
       <c r="C1186" s="42"/>
       <c r="D1186" s="42"/>
       <c r="E1186" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1186" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1186" s="42" t="s">
         <v>20</v>
@@ -70514,10 +70515,10 @@
       <c r="J1186" s="42"/>
       <c r="K1186" s="42"/>
       <c r="L1186" s="39" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="M1186" s="23" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="N1186" s="42" t="s">
         <v>20</v>
@@ -70547,15 +70548,15 @@
         <v>1038</v>
       </c>
       <c r="B1187" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1187" s="42"/>
       <c r="D1187" s="42"/>
       <c r="E1187" s="39" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="F1187" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1187" s="42" t="s">
         <v>20</v>
@@ -70569,10 +70570,10 @@
       <c r="J1187" s="42"/>
       <c r="K1187" s="42"/>
       <c r="L1187" s="39" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M1187" s="23" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="N1187" s="42" t="s">
         <v>20</v>
@@ -70607,10 +70608,10 @@
       <c r="C1188" s="42"/>
       <c r="D1188" s="42"/>
       <c r="E1188" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1188" s="42" t="s">
-        <v>115</v>
+        <v>168</v>
+      </c>
+      <c r="F1188" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G1188" s="42" t="s">
         <v>20</v>
@@ -70664,8 +70665,8 @@
       <c r="E1189" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F1189" s="33" t="s">
-        <v>173</v>
+      <c r="F1189" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="G1189" s="42" t="s">
         <v>20</v>
@@ -70674,15 +70675,15 @@
         <v>20</v>
       </c>
       <c r="I1189" s="42" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J1189" s="42"/>
       <c r="K1189" s="42"/>
       <c r="L1189" s="39" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="M1189" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1189" s="42" t="s">
         <v>20</v>
@@ -70709,7 +70710,7 @@
     <row r="1190" spans="1:20">
       <c r="A1190" s="32">
         <f t="shared" si="18"/>
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1190" s="1">
         <v>90</v>
@@ -70717,10 +70718,10 @@
       <c r="C1190" s="42"/>
       <c r="D1190" s="42"/>
       <c r="E1190" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1190" s="42" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="F1190" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1190" s="42" t="s">
         <v>20</v>
@@ -70729,7 +70730,7 @@
         <v>20</v>
       </c>
       <c r="I1190" s="42" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J1190" s="42"/>
       <c r="K1190" s="42"/>
@@ -70737,7 +70738,7 @@
         <v>140</v>
       </c>
       <c r="M1190" s="23" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N1190" s="42" t="s">
         <v>20</v>
@@ -70764,7 +70765,7 @@
     <row r="1191" spans="1:20">
       <c r="A1191" s="32">
         <f t="shared" si="18"/>
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1191" s="1">
         <v>90</v>
@@ -70789,10 +70790,10 @@
       <c r="J1191" s="42"/>
       <c r="K1191" s="42"/>
       <c r="L1191" s="39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M1191" s="23" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="N1191" s="42" t="s">
         <v>20</v>
@@ -70806,8 +70807,8 @@
       <c r="Q1191" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1191" s="33" t="s">
-        <v>183</v>
+      <c r="R1191" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="S1191" s="42" t="s">
         <v>20</v>
@@ -70824,15 +70825,13 @@
       <c r="B1192" s="1">
         <v>90</v>
       </c>
-      <c r="C1192" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="C1192" s="42"/>
       <c r="D1192" s="42"/>
       <c r="E1192" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1192" s="33" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="F1192" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="G1192" s="42" t="s">
         <v>20</v>
@@ -70841,15 +70840,15 @@
         <v>20</v>
       </c>
       <c r="I1192" s="42" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="J1192" s="42"/>
       <c r="K1192" s="42"/>
       <c r="L1192" s="39" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M1192" s="23" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N1192" s="42" t="s">
         <v>20</v>
@@ -70863,8 +70862,8 @@
       <c r="Q1192" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1192" s="43" t="s">
-        <v>20</v>
+      <c r="R1192" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="S1192" s="42" t="s">
         <v>20</v>
@@ -70881,13 +70880,15 @@
       <c r="B1193" s="1">
         <v>90</v>
       </c>
-      <c r="C1193" s="42"/>
+      <c r="C1193" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="D1193" s="42"/>
       <c r="E1193" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1193" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="F1193" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1193" s="42" t="s">
         <v>20</v>
@@ -70896,15 +70897,15 @@
         <v>20</v>
       </c>
       <c r="I1193" s="42" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="J1193" s="42"/>
       <c r="K1193" s="42"/>
       <c r="L1193" s="39" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M1193" s="23" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N1193" s="42" t="s">
         <v>20</v>
@@ -70918,8 +70919,8 @@
       <c r="Q1193" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1193" s="33" t="s">
-        <v>184</v>
+      <c r="R1193" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="S1193" s="42" t="s">
         <v>20</v>
@@ -70941,8 +70942,8 @@
       <c r="E1194" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F1194" s="33" t="s">
-        <v>173</v>
+      <c r="F1194" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="G1194" s="42" t="s">
         <v>20</v>
@@ -70950,16 +70951,16 @@
       <c r="H1194" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1194" s="3" t="s">
-        <v>176</v>
+      <c r="I1194" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="J1194" s="42"/>
       <c r="K1194" s="42"/>
       <c r="L1194" s="39" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M1194" s="23" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="N1194" s="42" t="s">
         <v>20</v>
@@ -70973,8 +70974,8 @@
       <c r="Q1194" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1194" s="43" t="s">
-        <v>20</v>
+      <c r="R1194" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="S1194" s="42" t="s">
         <v>20</v>
@@ -70994,10 +70995,10 @@
       <c r="C1195" s="42"/>
       <c r="D1195" s="42"/>
       <c r="E1195" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1195" s="42" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="F1195" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1195" s="42" t="s">
         <v>20</v>
@@ -71005,16 +71006,16 @@
       <c r="H1195" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1195" s="42" t="s">
-        <v>20</v>
+      <c r="I1195" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="J1195" s="42"/>
       <c r="K1195" s="42"/>
       <c r="L1195" s="39" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M1195" s="23" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N1195" s="42" t="s">
         <v>20</v>
@@ -71049,10 +71050,10 @@
       <c r="C1196" s="42"/>
       <c r="D1196" s="42"/>
       <c r="E1196" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1196" s="23" t="s">
-        <v>109</v>
+        <v>157</v>
+      </c>
+      <c r="F1196" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="G1196" s="42" t="s">
         <v>20</v>
@@ -71066,10 +71067,10 @@
       <c r="J1196" s="42"/>
       <c r="K1196" s="42"/>
       <c r="L1196" s="39" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M1196" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N1196" s="42" t="s">
         <v>20</v>
@@ -71104,10 +71105,10 @@
       <c r="C1197" s="42"/>
       <c r="D1197" s="42"/>
       <c r="E1197" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1197" s="42" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="F1197" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="G1197" s="42" t="s">
         <v>20</v>
@@ -71121,10 +71122,10 @@
       <c r="J1197" s="42"/>
       <c r="K1197" s="42"/>
       <c r="L1197" s="39" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="M1197" s="23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="N1197" s="42" t="s">
         <v>20</v>
@@ -71161,8 +71162,8 @@
       <c r="E1198" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F1198" s="33" t="s">
-        <v>170</v>
+      <c r="F1198" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="G1198" s="42" t="s">
         <v>20</v>
@@ -71176,10 +71177,10 @@
       <c r="J1198" s="42"/>
       <c r="K1198" s="42"/>
       <c r="L1198" s="39" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="M1198" s="23" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N1198" s="42" t="s">
         <v>20</v>
@@ -71214,7 +71215,7 @@
       <c r="C1199" s="42"/>
       <c r="D1199" s="42"/>
       <c r="E1199" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1199" s="33" t="s">
         <v>170</v>
@@ -71269,10 +71270,10 @@
       <c r="C1200" s="42"/>
       <c r="D1200" s="42"/>
       <c r="E1200" s="39" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F1200" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1200" s="42" t="s">
         <v>20</v>
@@ -71324,10 +71325,10 @@
       <c r="C1201" s="42"/>
       <c r="D1201" s="42"/>
       <c r="E1201" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1201" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1201" s="42" t="s">
         <v>20</v>
@@ -71379,10 +71380,10 @@
       <c r="C1202" s="42"/>
       <c r="D1202" s="42"/>
       <c r="E1202" s="39" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F1202" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1202" s="42" t="s">
         <v>20</v>
@@ -71434,10 +71435,10 @@
       <c r="C1203" s="42"/>
       <c r="D1203" s="42"/>
       <c r="E1203" s="39" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F1203" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1203" s="42" t="s">
         <v>20</v>
@@ -71489,10 +71490,10 @@
       <c r="C1204" s="42"/>
       <c r="D1204" s="42"/>
       <c r="E1204" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1204" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1204" s="42" t="s">
         <v>20</v>
@@ -71544,7 +71545,7 @@
       <c r="C1205" s="42"/>
       <c r="D1205" s="42"/>
       <c r="E1205" s="39" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F1205" s="33" t="s">
         <v>173</v>
@@ -71556,23 +71557,21 @@
         <v>20</v>
       </c>
       <c r="I1205" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1205" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J1205" s="42"/>
       <c r="K1205" s="42"/>
       <c r="L1205" s="39" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="M1205" s="23" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="N1205" s="42" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="O1205" s="42" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P1205" s="42" t="s">
         <v>20</v>
@@ -71595,15 +71594,13 @@
         <f t="shared" si="18"/>
         <v>1055</v>
       </c>
-      <c r="B1206" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1206" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="B1206" s="1">
+        <v>90</v>
+      </c>
+      <c r="C1206" s="42"/>
       <c r="D1206" s="42"/>
       <c r="E1206" s="39" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F1206" s="33" t="s">
         <v>173</v>
@@ -71615,21 +71612,23 @@
         <v>20</v>
       </c>
       <c r="I1206" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1206" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="J1206" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="K1206" s="42"/>
       <c r="L1206" s="39" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="M1206" s="23" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="N1206" s="42" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="O1206" s="42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P1206" s="42" t="s">
         <v>20</v>
@@ -71655,10 +71654,12 @@
       <c r="B1207" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1207" s="42"/>
+      <c r="C1207" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="D1207" s="42"/>
       <c r="E1207" s="39" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F1207" s="33" t="s">
         <v>173</v>
@@ -71670,7 +71671,7 @@
         <v>20</v>
       </c>
       <c r="I1207" s="42" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J1207" s="42"/>
       <c r="K1207" s="42"/>
@@ -71692,8 +71693,8 @@
       <c r="Q1207" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1207" s="33" t="s">
-        <v>183</v>
+      <c r="R1207" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="S1207" s="42" t="s">
         <v>20</v>
@@ -71710,12 +71711,10 @@
       <c r="B1208" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1208" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="C1208" s="42"/>
       <c r="D1208" s="42"/>
       <c r="E1208" s="39" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F1208" s="33" t="s">
         <v>173</v>
@@ -71727,7 +71726,7 @@
         <v>20</v>
       </c>
       <c r="I1208" s="42" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="J1208" s="42"/>
       <c r="K1208" s="42"/>
@@ -71749,8 +71748,8 @@
       <c r="Q1208" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R1208" s="43" t="s">
-        <v>20</v>
+      <c r="R1208" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="S1208" s="42" t="s">
         <v>20</v>
@@ -71767,10 +71766,12 @@
       <c r="B1209" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1209" s="42"/>
+      <c r="C1209" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="D1209" s="42"/>
       <c r="E1209" s="39" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F1209" s="33" t="s">
         <v>173</v>
@@ -71782,7 +71783,7 @@
         <v>20</v>
       </c>
       <c r="I1209" s="42" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="J1209" s="42"/>
       <c r="K1209" s="42"/>
@@ -71825,10 +71826,10 @@
       <c r="C1210" s="42"/>
       <c r="D1210" s="42"/>
       <c r="E1210" s="39" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F1210" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1210" s="42" t="s">
         <v>20</v>
@@ -71842,10 +71843,10 @@
       <c r="J1210" s="42"/>
       <c r="K1210" s="42"/>
       <c r="L1210" s="39" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="M1210" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1210" s="42" t="s">
         <v>20</v>
@@ -71880,10 +71881,10 @@
       <c r="C1211" s="42"/>
       <c r="D1211" s="42"/>
       <c r="E1211" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1211" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="F1211" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="G1211" s="42" t="s">
         <v>20</v>
@@ -71897,10 +71898,10 @@
       <c r="J1211" s="42"/>
       <c r="K1211" s="42"/>
       <c r="L1211" s="39" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="M1211" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1211" s="42" t="s">
         <v>20</v>
@@ -71937,8 +71938,8 @@
       <c r="E1212" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F1212" s="33" t="s">
-        <v>173</v>
+      <c r="F1212" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="G1212" s="42" t="s">
         <v>20</v>
@@ -71990,7 +71991,7 @@
       <c r="C1213" s="42"/>
       <c r="D1213" s="42"/>
       <c r="E1213" s="39" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F1213" s="33" t="s">
         <v>173</v>
@@ -72007,10 +72008,10 @@
       <c r="J1213" s="42"/>
       <c r="K1213" s="42"/>
       <c r="L1213" s="39" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="M1213" s="23" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N1213" s="42" t="s">
         <v>20</v>
@@ -72045,7 +72046,7 @@
       <c r="C1214" s="42"/>
       <c r="D1214" s="42"/>
       <c r="E1214" s="39" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F1214" s="33" t="s">
         <v>173</v>
@@ -72062,7 +72063,7 @@
       <c r="J1214" s="42"/>
       <c r="K1214" s="42"/>
       <c r="L1214" s="39" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="M1214" s="23" t="s">
         <v>88</v>
@@ -72092,7 +72093,7 @@
     <row r="1215" spans="1:20">
       <c r="A1215" s="32">
         <f t="shared" si="18"/>
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>162</v>
@@ -72100,10 +72101,10 @@
       <c r="C1215" s="42"/>
       <c r="D1215" s="42"/>
       <c r="E1215" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1215" s="42" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="F1215" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1215" s="42" t="s">
         <v>20</v>
@@ -72117,10 +72118,10 @@
       <c r="J1215" s="42"/>
       <c r="K1215" s="42"/>
       <c r="L1215" s="39" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M1215" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N1215" s="42" t="s">
         <v>20</v>
@@ -72150,15 +72151,15 @@
         <v>1064</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1216" s="42"/>
       <c r="D1216" s="42"/>
       <c r="E1216" s="39" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F1216" s="42" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="G1216" s="42" t="s">
         <v>20</v>
@@ -72172,10 +72173,10 @@
       <c r="J1216" s="42"/>
       <c r="K1216" s="42"/>
       <c r="L1216" s="39" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="M1216" s="23" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="N1216" s="42" t="s">
         <v>20</v>
@@ -72213,7 +72214,7 @@
         <v>102</v>
       </c>
       <c r="F1217" s="42" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G1217" s="42" t="s">
         <v>20</v>
@@ -72227,10 +72228,10 @@
       <c r="J1217" s="42"/>
       <c r="K1217" s="42"/>
       <c r="L1217" s="39" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="M1217" s="23" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="N1217" s="42" t="s">
         <v>20</v>
@@ -72257,7 +72258,7 @@
     <row r="1218" spans="1:20">
       <c r="A1218" s="32">
         <f t="shared" si="18"/>
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>163</v>
@@ -72265,10 +72266,10 @@
       <c r="C1218" s="42"/>
       <c r="D1218" s="42"/>
       <c r="E1218" s="39" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F1218" s="42" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G1218" s="42" t="s">
         <v>20</v>
@@ -72282,10 +72283,10 @@
       <c r="J1218" s="42"/>
       <c r="K1218" s="42"/>
       <c r="L1218" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M1218" s="23" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="N1218" s="42" t="s">
         <v>20</v>
@@ -72320,10 +72321,10 @@
       <c r="C1219" s="42"/>
       <c r="D1219" s="42"/>
       <c r="E1219" s="39" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F1219" s="42" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="G1219" s="42" t="s">
         <v>20</v>
@@ -72337,10 +72338,10 @@
       <c r="J1219" s="42"/>
       <c r="K1219" s="42"/>
       <c r="L1219" s="39" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M1219" s="23" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N1219" s="42" t="s">
         <v>20</v>
@@ -72377,8 +72378,8 @@
       <c r="E1220" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F1220" s="33" t="s">
-        <v>170</v>
+      <c r="F1220" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="G1220" s="42" t="s">
         <v>20</v>
@@ -72427,15 +72428,13 @@
       <c r="B1221" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1221" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="C1221" s="42"/>
       <c r="D1221" s="42"/>
       <c r="E1221" s="39" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F1221" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1221" s="42" t="s">
         <v>20</v>
@@ -72484,10 +72483,12 @@
       <c r="B1222" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1222" s="42"/>
+      <c r="C1222" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="D1222" s="42"/>
       <c r="E1222" s="39" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F1222" s="33" t="s">
         <v>173</v>
@@ -72542,10 +72543,10 @@
       <c r="C1223" s="42"/>
       <c r="D1223" s="42"/>
       <c r="E1223" s="39" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F1223" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1223" s="42" t="s">
         <v>20</v>
@@ -72597,10 +72598,10 @@
       <c r="C1224" s="42"/>
       <c r="D1224" s="42"/>
       <c r="E1224" s="39" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F1224" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1224" s="42" t="s">
         <v>20</v>
@@ -72652,7 +72653,7 @@
       <c r="C1225" s="42"/>
       <c r="D1225" s="42"/>
       <c r="E1225" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F1225" s="33" t="s">
         <v>171</v>
@@ -72707,7 +72708,7 @@
       <c r="C1226" s="42"/>
       <c r="D1226" s="42"/>
       <c r="E1226" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1226" s="33" t="s">
         <v>171</v>
@@ -72762,10 +72763,10 @@
       <c r="C1227" s="42"/>
       <c r="D1227" s="42"/>
       <c r="E1227" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F1227" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1227" s="42" t="s">
         <v>20</v>
@@ -72817,10 +72818,10 @@
       <c r="C1228" s="42"/>
       <c r="D1228" s="42"/>
       <c r="E1228" s="39" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F1228" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1228" s="42" t="s">
         <v>20</v>
@@ -72834,10 +72835,10 @@
       <c r="J1228" s="42"/>
       <c r="K1228" s="42"/>
       <c r="L1228" s="39" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="M1228" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1228" s="42" t="s">
         <v>20</v>
@@ -72872,10 +72873,10 @@
       <c r="C1229" s="42"/>
       <c r="D1229" s="42"/>
       <c r="E1229" s="39" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F1229" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1229" s="42" t="s">
         <v>20</v>
@@ -72889,10 +72890,10 @@
       <c r="J1229" s="42"/>
       <c r="K1229" s="42"/>
       <c r="L1229" s="39" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="M1229" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1229" s="42" t="s">
         <v>20</v>
@@ -72927,10 +72928,10 @@
       <c r="C1230" s="42"/>
       <c r="D1230" s="42"/>
       <c r="E1230" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1230" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1230" s="42" t="s">
         <v>20</v>
@@ -72982,10 +72983,10 @@
       <c r="C1231" s="42"/>
       <c r="D1231" s="42"/>
       <c r="E1231" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F1231" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1231" s="42" t="s">
         <v>20</v>
@@ -73037,10 +73038,10 @@
       <c r="C1232" s="42"/>
       <c r="D1232" s="42"/>
       <c r="E1232" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1232" s="42" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="F1232" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G1232" s="42" t="s">
         <v>20</v>
@@ -73094,8 +73095,8 @@
       <c r="E1233" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F1233" s="33" t="s">
-        <v>173</v>
+      <c r="F1233" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="G1233" s="42" t="s">
         <v>20</v>
@@ -73147,7 +73148,7 @@
       <c r="C1234" s="42"/>
       <c r="D1234" s="42"/>
       <c r="E1234" s="39" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F1234" s="33" t="s">
         <v>173</v>
@@ -73202,10 +73203,10 @@
       <c r="C1235" s="42"/>
       <c r="D1235" s="42"/>
       <c r="E1235" s="39" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F1235" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1235" s="42" t="s">
         <v>20</v>
@@ -73219,10 +73220,10 @@
       <c r="J1235" s="42"/>
       <c r="K1235" s="42"/>
       <c r="L1235" s="39" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="M1235" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1235" s="42" t="s">
         <v>20</v>
@@ -73252,12 +73253,12 @@
         <v>1083</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1236" s="42"/>
       <c r="D1236" s="42"/>
       <c r="E1236" s="39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F1236" s="33" t="s">
         <v>170</v>
@@ -73274,10 +73275,10 @@
       <c r="J1236" s="42"/>
       <c r="K1236" s="42"/>
       <c r="L1236" s="39" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="M1236" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1236" s="42" t="s">
         <v>20</v>
@@ -73312,10 +73313,10 @@
       <c r="C1237" s="42"/>
       <c r="D1237" s="42"/>
       <c r="E1237" s="39" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F1237" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1237" s="42" t="s">
         <v>20</v>
@@ -73367,10 +73368,10 @@
       <c r="C1238" s="42"/>
       <c r="D1238" s="42"/>
       <c r="E1238" s="39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1238" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1238" s="42" t="s">
         <v>20</v>
@@ -73422,7 +73423,7 @@
       <c r="C1239" s="42"/>
       <c r="D1239" s="42"/>
       <c r="E1239" s="39" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F1239" s="33" t="s">
         <v>173</v>
@@ -73477,10 +73478,10 @@
       <c r="C1240" s="42"/>
       <c r="D1240" s="42"/>
       <c r="E1240" s="39" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1240" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1240" s="42" t="s">
         <v>20</v>
@@ -73494,10 +73495,10 @@
       <c r="J1240" s="42"/>
       <c r="K1240" s="42"/>
       <c r="L1240" s="39" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="M1240" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1240" s="42" t="s">
         <v>20</v>
@@ -73532,7 +73533,7 @@
       <c r="C1241" s="42"/>
       <c r="D1241" s="42"/>
       <c r="E1241" s="39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F1241" s="33" t="s">
         <v>170</v>
@@ -73549,10 +73550,10 @@
       <c r="J1241" s="42"/>
       <c r="K1241" s="42"/>
       <c r="L1241" s="39" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="M1241" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1241" s="42" t="s">
         <v>20</v>
@@ -73587,10 +73588,10 @@
       <c r="C1242" s="42"/>
       <c r="D1242" s="42"/>
       <c r="E1242" s="39" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F1242" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1242" s="42" t="s">
         <v>20</v>
@@ -73604,10 +73605,10 @@
       <c r="J1242" s="42"/>
       <c r="K1242" s="42"/>
       <c r="L1242" s="39" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="M1242" s="23" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N1242" s="42" t="s">
         <v>20</v>
@@ -73642,10 +73643,10 @@
       <c r="C1243" s="42"/>
       <c r="D1243" s="42"/>
       <c r="E1243" s="39" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F1243" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1243" s="42" t="s">
         <v>20</v>
@@ -73659,10 +73660,10 @@
       <c r="J1243" s="42"/>
       <c r="K1243" s="42"/>
       <c r="L1243" s="39" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M1243" s="23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N1243" s="42" t="s">
         <v>20</v>
@@ -73697,10 +73698,10 @@
       <c r="C1244" s="42"/>
       <c r="D1244" s="42"/>
       <c r="E1244" s="39" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F1244" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1244" s="42" t="s">
         <v>20</v>
@@ -73709,15 +73710,15 @@
         <v>20</v>
       </c>
       <c r="I1244" s="42" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J1244" s="42"/>
       <c r="K1244" s="42"/>
       <c r="L1244" s="39" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="M1244" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1244" s="42" t="s">
         <v>20</v>
@@ -73752,10 +73753,10 @@
       <c r="C1245" s="42"/>
       <c r="D1245" s="42"/>
       <c r="E1245" s="39" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F1245" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1245" s="42" t="s">
         <v>20</v>
@@ -73764,15 +73765,15 @@
         <v>20</v>
       </c>
       <c r="I1245" s="42" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J1245" s="42"/>
       <c r="K1245" s="42"/>
       <c r="L1245" s="39" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="M1245" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1245" s="42" t="s">
         <v>20</v>
@@ -73807,10 +73808,10 @@
       <c r="C1246" s="42"/>
       <c r="D1246" s="42"/>
       <c r="E1246" s="39" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F1246" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G1246" s="42" t="s">
         <v>20</v>
@@ -73824,7 +73825,7 @@
       <c r="J1246" s="42"/>
       <c r="K1246" s="42"/>
       <c r="L1246" s="39" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="M1246" s="23" t="s">
         <v>83</v>
@@ -73853,7 +73854,7 @@
     </row>
     <row r="1247" spans="1:20">
       <c r="A1247" s="32">
-        <f t="shared" ref="A1247:A1259" si="19">IF(OR(F1247="",F1247="-"),A1246,A1246+1)</f>
+        <f t="shared" si="18"/>
         <v>1094</v>
       </c>
       <c r="B1247" s="1" t="s">
@@ -73862,7 +73863,7 @@
       <c r="C1247" s="42"/>
       <c r="D1247" s="42"/>
       <c r="E1247" s="39" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F1247" s="33" t="s">
         <v>170</v>
@@ -73879,10 +73880,10 @@
       <c r="J1247" s="42"/>
       <c r="K1247" s="42"/>
       <c r="L1247" s="39" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="M1247" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1247" s="42" t="s">
         <v>20</v>
@@ -73908,7 +73909,7 @@
     </row>
     <row r="1248" spans="1:20">
       <c r="A1248" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A1248:A1260" si="19">IF(OR(F1248="",F1248="-"),A1247,A1247+1)</f>
         <v>1095</v>
       </c>
       <c r="B1248" s="1" t="s">
@@ -73917,7 +73918,7 @@
       <c r="C1248" s="42"/>
       <c r="D1248" s="42"/>
       <c r="E1248" s="39" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F1248" s="33" t="s">
         <v>170</v>
@@ -73929,15 +73930,15 @@
         <v>20</v>
       </c>
       <c r="I1248" s="42" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J1248" s="42"/>
       <c r="K1248" s="42"/>
       <c r="L1248" s="39" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="M1248" s="23" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N1248" s="42" t="s">
         <v>20</v>
@@ -73972,7 +73973,7 @@
       <c r="C1249" s="42"/>
       <c r="D1249" s="42"/>
       <c r="E1249" s="39" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F1249" s="33" t="s">
         <v>170</v>
@@ -73984,15 +73985,15 @@
         <v>20</v>
       </c>
       <c r="I1249" s="42" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J1249" s="42"/>
       <c r="K1249" s="42"/>
       <c r="L1249" s="39" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="M1249" s="23" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N1249" s="42" t="s">
         <v>20</v>
@@ -74027,10 +74028,10 @@
       <c r="C1250" s="42"/>
       <c r="D1250" s="42"/>
       <c r="E1250" s="39" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F1250" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1250" s="42" t="s">
         <v>20</v>
@@ -74082,10 +74083,10 @@
       <c r="C1251" s="42"/>
       <c r="D1251" s="42"/>
       <c r="E1251" s="39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F1251" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1251" s="42" t="s">
         <v>20</v>
@@ -74134,15 +74135,13 @@
       <c r="B1252" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1252" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="C1252" s="42"/>
       <c r="D1252" s="42"/>
       <c r="E1252" s="39" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F1252" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1252" s="42" t="s">
         <v>20</v>
@@ -74191,13 +74190,15 @@
       <c r="B1253" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1253" s="42"/>
+      <c r="C1253" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="D1253" s="42"/>
       <c r="E1253" s="39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F1253" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1253" s="42" t="s">
         <v>20</v>
@@ -74249,10 +74250,10 @@
       <c r="C1254" s="42"/>
       <c r="D1254" s="42"/>
       <c r="E1254" s="39" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F1254" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1254" s="42" t="s">
         <v>20</v>
@@ -74304,10 +74305,10 @@
       <c r="C1255" s="42"/>
       <c r="D1255" s="42"/>
       <c r="E1255" s="39" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F1255" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1255" s="42" t="s">
         <v>20</v>
@@ -74359,10 +74360,10 @@
       <c r="C1256" s="42"/>
       <c r="D1256" s="42"/>
       <c r="E1256" s="39" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F1256" s="33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G1256" s="42" t="s">
         <v>20</v>
@@ -74409,15 +74410,15 @@
         <v>1104</v>
       </c>
       <c r="B1257" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1257" s="42"/>
       <c r="D1257" s="42"/>
       <c r="E1257" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1257" s="42" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="F1257" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="G1257" s="42" t="s">
         <v>20</v>
@@ -74472,7 +74473,7 @@
         <v>49</v>
       </c>
       <c r="F1258" s="42" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="G1258" s="42" t="s">
         <v>20</v>
@@ -74524,10 +74525,10 @@
       <c r="C1259" s="42"/>
       <c r="D1259" s="42"/>
       <c r="E1259" s="39" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1259" s="42" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G1259" s="42" t="s">
         <v>20</v>
@@ -74568,8 +74569,63 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1260" spans="1:20">
+      <c r="A1260" s="32">
+        <f t="shared" si="19"/>
+        <v>1107</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1260" s="42"/>
+      <c r="D1260" s="42"/>
+      <c r="E1260" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1260" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1260" s="42"/>
+      <c r="K1260" s="42"/>
+      <c r="L1260" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1260" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1260" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1260" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1260" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T1259"/>
+  <autoFilter ref="A1:T1260"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
